--- a/panda/test.xlsx
+++ b/panda/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnte/PycharmProjects/hello-world/panda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9E1CB-8FC9-CF45-AFB2-40B8607A9B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35154720-2964-394F-B4BF-57A7F3D5EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="15100" windowWidth="22180" windowHeight="15580" activeTab="1" xr2:uid="{7400BFFA-9A8B-E94B-9EF4-94D5C087999A}"/>
+    <workbookView xWindow="15760" yWindow="15120" windowWidth="22180" windowHeight="15580" xr2:uid="{7400BFFA-9A8B-E94B-9EF4-94D5C087999A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lap1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>three</t>
+  </si>
+  <si>
+    <t>négy</t>
+  </si>
+  <si>
+    <t>ötödik elem</t>
+  </si>
+  <si>
+    <t>hatodik</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA24027C-2E6A-1E42-A234-9D80FAEDDDAE}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,6 +484,48 @@
       </c>
       <c r="D4">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -486,7 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE19055-BFC2-D648-954B-CB943BBDAA7C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
